--- a/excel/Santa_ClaraUSD_TIP.xlsx
+++ b/excel/Santa_ClaraUSD_TIP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanareyna/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76A7A89E-71BD-9745-A767-FB343306C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEC8F70-AD58-754B-8C36-2A8316D5627C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="124">
   <si>
     <t>Which of the following best represents how you think your learning will influence your practice?</t>
   </si>
@@ -296,13 +296,109 @@
   </si>
   <si>
     <t>2023-24 Santa Clara USD Teacher Induction Program Professional Learning Feedback Survey</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Candidate (General Education) Year 1</t>
+  </si>
+  <si>
+    <t>6-8 Teacher</t>
+  </si>
+  <si>
+    <t>I have gained or reviewed new knowledge or skills during the experience, but I do not think the highlighted strategies would work well for me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will implement the use of "The 3 A's: Appreciation, Apology, Aha!" in my classroom. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorporating student culture and background specifically in a math classroom with math content. </t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasquez </t>
+  </si>
+  <si>
+    <t>Candidate (Education Specialist) Year 1</t>
+  </si>
+  <si>
+    <t>kristiana</t>
+  </si>
+  <si>
+    <t>stevens</t>
+  </si>
+  <si>
+    <t>Adianna</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Candidate (General Education) Year 2</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Lazaro</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Flora</t>
+  </si>
+  <si>
+    <t>mcq_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue to implement fun engaging lessons that incorporate my students cultural experience. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One thing that I will be implementing starting tomorrow is instead of greeting students with just a good morning is to incorporate a fist pump or high five. </t>
+  </si>
+  <si>
+    <t>-Acknowledge more positive behavior!  -More smiling  -Review class norms each class</t>
+  </si>
+  <si>
+    <t>I will add on development of norms to our August Agenda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am further exploring the online resources, getting myself familiar with the google classroom, and setting up a shared folder for my mentee and me to share. </t>
+  </si>
+  <si>
+    <t>Middle school behavior is tough! I hope we continue to mix classroom management with CRT</t>
+  </si>
+  <si>
+    <t>More exposure, as given in trainings, to practice mentoring conversation strands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I plan to attend future training and hopefully will get some question answered. I have connected with other experienced mentor to help me if needed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All is well! :) </t>
+  </si>
+  <si>
+    <t>None at the moment</t>
+  </si>
+  <si>
+    <t>At this time, I am just trying to figure it out. I think with training and practice, I will settle in and feel more comfortable.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +409,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,9 +447,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -652,16 +756,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EC4178-A4A2-7745-B117-9F0E5F60A6A9}">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="AG10" sqref="AG10:AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.6640625" bestFit="1" customWidth="1"/>
@@ -679,7 +783,7 @@
     <col min="18" max="18" width="50.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="75.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="101.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="109.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="87.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="253.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="106.33203125" bestFit="1" customWidth="1"/>
@@ -718,7 +822,7 @@
         <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>63</v>
@@ -795,79 +899,73 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
         <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
         <v>8</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
         <v>9</v>
       </c>
       <c r="Q2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="R2" t="s">
         <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
       </c>
-      <c r="W2" t="s">
-        <v>19</v>
-      </c>
       <c r="X2" t="s">
         <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>20</v>
       </c>
       <c r="Z2" t="s">
         <v>3</v>
@@ -994,19 +1092,19 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1018,13 +1116,13 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
         <v>7</v>
@@ -1054,25 +1152,22 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s">
         <v>2</v>
       </c>
       <c r="Y4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s">
         <v>3</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>34</v>
       </c>
       <c r="AB4" t="s">
         <v>89</v>
@@ -1095,16 +1190,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -1112,62 +1207,32 @@
       <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
       <c r="J5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
       <c r="L5" t="s">
         <v>7</v>
       </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
       <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
       <c r="P5" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" t="s">
-        <v>17</v>
-      </c>
       <c r="R5" t="s">
         <v>10</v>
       </c>
-      <c r="S5" t="s">
-        <v>17</v>
-      </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
       <c r="V5" t="s">
         <v>1</v>
       </c>
-      <c r="W5" t="s">
-        <v>37</v>
-      </c>
       <c r="X5" t="s">
         <v>2</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>38</v>
       </c>
       <c r="Z5" t="s">
         <v>3</v>
@@ -1294,10 +1359,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -1312,43 +1377,43 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
         <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
         <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="P7" t="s">
         <v>9</v>
       </c>
       <c r="Q7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="R7" t="s">
         <v>10</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
@@ -1359,8 +1424,14 @@
       <c r="V7" t="s">
         <v>1</v>
       </c>
+      <c r="W7" t="s">
+        <v>37</v>
+      </c>
       <c r="X7" t="s">
         <v>2</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>38</v>
       </c>
       <c r="Z7" t="s">
         <v>3</v>
@@ -1386,19 +1457,19 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
@@ -1451,11 +1522,20 @@
       <c r="V8" t="s">
         <v>1</v>
       </c>
+      <c r="W8" t="s">
+        <v>53</v>
+      </c>
       <c r="X8" t="s">
         <v>2</v>
       </c>
+      <c r="Y8" t="s">
+        <v>54</v>
+      </c>
       <c r="Z8" t="s">
         <v>3</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>55</v>
       </c>
       <c r="AB8" t="s">
         <v>89</v>
@@ -1478,16 +1558,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -1495,26 +1575,50 @@
       <c r="F9" t="s">
         <v>4</v>
       </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" t="s">
         <v>5</v>
       </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
       <c r="J9" t="s">
         <v>6</v>
       </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
       <c r="L9" t="s">
         <v>7</v>
       </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
       <c r="N9" t="s">
         <v>8</v>
       </c>
+      <c r="O9" t="s">
+        <v>17</v>
+      </c>
       <c r="P9" t="s">
         <v>9</v>
       </c>
+      <c r="Q9" t="s">
+        <v>17</v>
+      </c>
       <c r="R9" t="s">
         <v>10</v>
       </c>
+      <c r="S9" t="s">
+        <v>17</v>
+      </c>
       <c r="T9" t="s">
         <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -1546,10 +1650,10 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -1558,7 +1662,7 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -1612,19 +1716,19 @@
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="X10" t="s">
         <v>2</v>
       </c>
       <c r="Y10" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="Z10" t="s">
         <v>3</v>
       </c>
       <c r="AA10" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="s">
         <v>89</v>
@@ -1645,7 +1749,608 @@
         <v>91</v>
       </c>
     </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF11">
+        <v>408374052</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="X12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF12">
+        <v>408374052</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF13">
+        <v>408374052</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF14">
+        <v>408374052</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF15">
+        <v>408374052</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="X16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF16">
+        <v>408374052</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG10">
+    <sortCondition ref="B2:B10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>